--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AVERAGE_1_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>-2.082763426755907</v>
       </c>
       <c r="AG17">
-        <v>-3.357986809108382</v>
+        <v>-6.098343679991225</v>
       </c>
       <c r="AH17">
         <v>-3.258619210312885</v>
@@ -2451,19 +2451,19 @@
         <v>-5.866344937500023</v>
       </c>
       <c r="AG18">
-        <v>11.62806235225531</v>
+        <v>-24.68459749742853</v>
       </c>
       <c r="AH18">
-        <v>-2.878617960200258</v>
+        <v>11.44905912635794</v>
       </c>
       <c r="AI18">
-        <v>-3.88825249955117</v>
+        <v>-1.289259938979503</v>
       </c>
       <c r="AJ18">
-        <v>-0.1380317107957718</v>
+        <v>-2.61626741352563</v>
       </c>
       <c r="AK18">
-        <v>-0.1388955462784724</v>
+        <v>0.1754491998870789</v>
       </c>
       <c r="AL18">
         <v>0.4255262881966981</v>
@@ -2522,31 +2522,31 @@
         <v>-5.866344937500012</v>
       </c>
       <c r="AG19">
-        <v>20.3024547013696</v>
+        <v>-25.93540127468257</v>
       </c>
       <c r="AH19">
-        <v>-3.514752015942024</v>
+        <v>20.00834592263008</v>
       </c>
       <c r="AI19">
-        <v>-7.923811177410267</v>
+        <v>-1.064625611893888</v>
       </c>
       <c r="AJ19">
-        <v>7.749494937649115</v>
+        <v>-4.982381489483345</v>
       </c>
       <c r="AK19">
-        <v>4.532186626383039</v>
+        <v>8.818149619171688</v>
       </c>
       <c r="AL19">
-        <v>1.466936654457096</v>
+        <v>7.992501921215989</v>
       </c>
       <c r="AM19">
-        <v>3.299288015397095</v>
+        <v>1.017074315159494</v>
       </c>
       <c r="AN19">
-        <v>3.848999231984762</v>
+        <v>4.740462114200339</v>
       </c>
       <c r="AO19">
-        <v>3.463320568938566</v>
+        <v>3.634271709196701</v>
       </c>
       <c r="AP19">
         <v>3.293290997728171</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>-7.923811177410256</v>
-      </c>
       <c r="AJ20">
-        <v>8.638630472158781</v>
+        <v>-4.982381489483378</v>
       </c>
       <c r="AK20">
-        <v>4.467080741463869</v>
+        <v>9.7370747134363</v>
       </c>
       <c r="AL20">
-        <v>-1.873561079004804</v>
+        <v>8.375384253760121</v>
       </c>
       <c r="AM20">
-        <v>3.813885712818554</v>
+        <v>-2.18096319765686</v>
       </c>
       <c r="AN20">
-        <v>2.866003071127765</v>
+        <v>7.292134478258427</v>
       </c>
       <c r="AO20">
-        <v>0.9167463358189964</v>
+        <v>3.085654629190415</v>
       </c>
       <c r="AP20">
-        <v>-1.421977974472588</v>
+        <v>2.385220017127665</v>
       </c>
       <c r="AQ20">
-        <v>-0.4618455958399603</v>
+        <v>-0.4898151384455929</v>
       </c>
       <c r="AR20">
-        <v>-0.3745803349312071</v>
+        <v>-1.298607950737329</v>
       </c>
       <c r="AS20">
-        <v>-0.2871245688614854</v>
+        <v>-0.1325798828872071</v>
       </c>
       <c r="AT20">
         <v>-0.2814561130375925</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>3.813885712818554</v>
-      </c>
       <c r="AN21">
-        <v>2.581714846818128</v>
+        <v>7.29213447825845</v>
       </c>
       <c r="AO21">
-        <v>0.2545344573368746</v>
+        <v>2.911018916833052</v>
       </c>
       <c r="AP21">
-        <v>-3.987612306731514</v>
+        <v>2.021759928986611</v>
       </c>
       <c r="AQ21">
-        <v>-2.262006095280478</v>
+        <v>-2.33558184960051</v>
       </c>
       <c r="AR21">
-        <v>0.645722451525943</v>
+        <v>-3.9629219377881</v>
       </c>
       <c r="AS21">
-        <v>-0.1008213866759977</v>
+        <v>1.927814683578033</v>
       </c>
       <c r="AT21">
-        <v>-0.3873858053678236</v>
+        <v>-1.104428907745325</v>
       </c>
       <c r="AU21">
-        <v>-0.4631846496550684</v>
+        <v>-0.9364538479926687</v>
       </c>
       <c r="AV21">
-        <v>-1.091476630333243</v>
+        <v>-0.9941519742633131</v>
       </c>
       <c r="AW21">
-        <v>-0.9636841177852018</v>
+        <v>-0.9516440563535733</v>
       </c>
       <c r="AX21">
         <v>-0.6470065423293869</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>-2.2620060952805</v>
-      </c>
       <c r="AR22">
-        <v>0.9610850552378869</v>
+        <v>-3.9629219377881</v>
       </c>
       <c r="AS22">
-        <v>-0.162785792692699</v>
+        <v>2.336107535492116</v>
       </c>
       <c r="AT22">
-        <v>-0.3179736631316876</v>
+        <v>-1.464839046773403</v>
       </c>
       <c r="AU22">
-        <v>0.11654623407098</v>
+        <v>-1.14919281543886</v>
       </c>
       <c r="AV22">
-        <v>-0.4907904687545206</v>
+        <v>0</v>
       </c>
       <c r="AW22">
-        <v>-0.1102571493959759</v>
+        <v>0.04770910652027727</v>
       </c>
       <c r="AX22">
-        <v>1.276847713071927</v>
+        <v>3.44988173406926</v>
       </c>
       <c r="AY22">
-        <v>2.749014873207956</v>
+        <v>3.540789332106198</v>
       </c>
       <c r="AZ22">
-        <v>1.626992717807862</v>
+        <v>1.069485063776954</v>
       </c>
       <c r="BA22">
-        <v>2.053865394798304</v>
+        <v>2.107899101287614</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>0.1165462340710022</v>
-      </c>
       <c r="AV23">
-        <v>-0.5234754487999593</v>
+        <v>0</v>
       </c>
       <c r="AW23">
-        <v>-0.1562071491172157</v>
+        <v>0.03817076216479087</v>
       </c>
       <c r="AX23">
-        <v>0.7104145964512698</v>
+        <v>4.179425305553552</v>
       </c>
       <c r="AY23">
-        <v>1.993341940459148</v>
+        <v>4.08949875228497</v>
       </c>
       <c r="AZ23">
-        <v>0.6270138473519316</v>
+        <v>-2.110726282892128</v>
       </c>
       <c r="BA23">
-        <v>0.8600861498751833</v>
+        <v>1.554246181732633</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>1.993341940459148</v>
-      </c>
       <c r="AZ24">
-        <v>0.8121744996258728</v>
+        <v>-2.110726282892128</v>
       </c>
       <c r="BA24">
-        <v>0.8369073470319677</v>
+        <v>1.690977685088169</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AVERAGE_1_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>3.623926716236636</v>
+      </c>
+      <c r="C3">
+        <v>7.865470614547321</v>
+      </c>
+      <c r="D3">
+        <v>4.26438011980097</v>
+      </c>
+      <c r="E3">
+        <v>-1.791203563722299</v>
+      </c>
+      <c r="F3">
+        <v>-0.8792832172735632</v>
+      </c>
+      <c r="G3">
+        <v>-0.9660231000212183</v>
+      </c>
+      <c r="H3">
+        <v>-1.117427301917984</v>
+      </c>
+      <c r="I3">
+        <v>-1.271358829139191</v>
+      </c>
+      <c r="J3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="K3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="L3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="M3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="N3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="O3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="P3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="Q3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="R3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="S3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="T3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="U3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="V3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="W3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="X3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="Y3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="Z3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AA3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AB3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AC3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AD3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AE3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AF3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AG3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AH3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AI3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AJ3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AK3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AL3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AM3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AN3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AO3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AP3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AQ3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AR3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AS3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AT3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AU3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AV3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AW3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AX3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AY3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="AZ3">
+        <v>-1.639753924881249</v>
+      </c>
+      <c r="BA3">
+        <v>-1.639753924881249</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>1.144978573787081</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>1.028506161176068</v>
+        <v>7.865470614547321</v>
       </c>
       <c r="D4">
-        <v>1.206584777779152</v>
+        <v>5.385774653938569</v>
       </c>
       <c r="E4">
-        <v>1.206584777779152</v>
+        <v>-6.760862998203621</v>
       </c>
       <c r="F4">
-        <v>1.219200732230608</v>
+        <v>3.109784435759599</v>
       </c>
       <c r="G4">
-        <v>1.219200732230608</v>
+        <v>0.5799958470386724</v>
       </c>
       <c r="H4">
-        <v>1.219200732230608</v>
+        <v>0.9337833426867226</v>
       </c>
       <c r="I4">
-        <v>1.219200732230608</v>
+        <v>0.8402098845508466</v>
       </c>
       <c r="J4">
-        <v>1.219200732230608</v>
+        <v>0.8292345478106533</v>
       </c>
       <c r="K4">
-        <v>1.219200732230608</v>
+        <v>0.8292345478106533</v>
       </c>
       <c r="L4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="M4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="N4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="O4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="P4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="Q4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="R4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="S4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="T4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="U4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="V4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="W4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="X4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="Y4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="Z4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AA4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AB4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AC4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AD4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AE4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AF4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AG4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AH4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AI4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AJ4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AK4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AL4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AM4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AN4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AO4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AP4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AQ4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AR4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AS4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AT4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AU4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AV4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AW4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AX4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AY4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="AZ4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
       <c r="BA4">
-        <v>1.219200732230608</v>
+        <v>1.146671111633779</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>2.918510996763723</v>
-      </c>
-      <c r="C5">
-        <v>3.09825757489699</v>
-      </c>
-      <c r="D5">
-        <v>1.381024225294869</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>1.42876627319084</v>
+        <v>-6.760862998203631</v>
       </c>
       <c r="F5">
-        <v>1.356047291861184</v>
+        <v>5.129778554239839</v>
       </c>
       <c r="G5">
-        <v>1.356047291861184</v>
+        <v>5.643342995751777</v>
       </c>
       <c r="H5">
-        <v>0.776457080299342</v>
+        <v>2.730731696345212</v>
       </c>
       <c r="I5">
-        <v>0.776457080299342</v>
+        <v>3.181454202131073</v>
       </c>
       <c r="J5">
-        <v>0.776457080299342</v>
+        <v>2.791140000794257</v>
       </c>
       <c r="K5">
-        <v>0.776457080299342</v>
+        <v>2.864443198590783</v>
       </c>
       <c r="L5">
-        <v>0.776457080299342</v>
+        <v>3.022590861563312</v>
       </c>
       <c r="M5">
-        <v>0.776457080299342</v>
+        <v>3.022590861563312</v>
       </c>
       <c r="N5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="O5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="P5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="Q5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="R5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="S5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="T5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="U5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="V5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="W5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="X5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="Y5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="Z5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AA5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AB5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AC5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AD5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AE5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AF5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AG5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AH5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AI5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AJ5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AK5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AL5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AM5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AN5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AO5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AP5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AQ5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AR5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AS5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AT5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AU5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AV5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AW5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AX5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AY5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="AZ5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
       <c r="BA5">
-        <v>0.776457080299342</v>
+        <v>3.235358612404049</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>3.623926716236636</v>
-      </c>
-      <c r="C6">
-        <v>7.865470614547343</v>
-      </c>
-      <c r="D6">
-        <v>4.264380119800992</v>
-      </c>
-      <c r="E6">
-        <v>-1.791203563722299</v>
-      </c>
-      <c r="F6">
-        <v>-0.8792832172735965</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-0.9660231000212405</v>
+        <v>5.643342995751777</v>
       </c>
       <c r="H6">
-        <v>-1.117427301917973</v>
+        <v>1.609625625599986</v>
       </c>
       <c r="I6">
-        <v>-1.27135882913918</v>
+        <v>4.38978860149748</v>
       </c>
       <c r="J6">
-        <v>-1.639753924881238</v>
+        <v>1.68385714213084</v>
       </c>
       <c r="K6">
-        <v>-1.639753924881238</v>
+        <v>0.5930547804883446</v>
       </c>
       <c r="L6">
-        <v>-1.639753924881238</v>
+        <v>0.4451370000809529</v>
       </c>
       <c r="M6">
-        <v>-1.639753924881238</v>
+        <v>0.502368887556881</v>
       </c>
       <c r="N6">
-        <v>-1.639753924881238</v>
+        <v>0.5820920650085659</v>
       </c>
       <c r="O6">
-        <v>-1.639753924881238</v>
+        <v>0.5820920650085659</v>
       </c>
       <c r="P6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="Q6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="R6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="S6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="T6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="U6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="V6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="W6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="X6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="Y6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="Z6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AA6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AB6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AC6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AD6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AE6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AF6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AG6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AH6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AI6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AJ6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AK6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AL6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AM6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AN6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AO6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AP6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AQ6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AR6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AS6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AT6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AU6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AV6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AW6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AX6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AY6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="AZ6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
       <c r="BA6">
-        <v>-1.639753924881238</v>
+        <v>0.261670745889786</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>7.865470614547343</v>
-      </c>
-      <c r="D7">
-        <v>5.385774653938613</v>
-      </c>
-      <c r="E7">
-        <v>-6.760862998203643</v>
-      </c>
-      <c r="F7">
-        <v>3.109784435759599</v>
-      </c>
-      <c r="G7">
-        <v>0.5799958470386946</v>
-      </c>
-      <c r="H7">
-        <v>0.9337833426867448</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>0.8402098845508466</v>
+        <v>4.38978860149748</v>
       </c>
       <c r="J7">
-        <v>0.8292345478106755</v>
+        <v>1.609625625600009</v>
       </c>
       <c r="K7">
-        <v>0.8292345478106755</v>
+        <v>-1.194610791899986</v>
       </c>
       <c r="L7">
-        <v>1.146671111633779</v>
+        <v>-0.2532347529486723</v>
       </c>
       <c r="M7">
-        <v>1.146671111633779</v>
+        <v>-0.3951783438669754</v>
       </c>
       <c r="N7">
-        <v>1.146671111633779</v>
+        <v>0.2545814083968478</v>
       </c>
       <c r="O7">
-        <v>1.146671111633779</v>
+        <v>0.3132191478737889</v>
       </c>
       <c r="P7">
-        <v>1.146671111633779</v>
+        <v>0.2793044818785395</v>
       </c>
       <c r="Q7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="R7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="S7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="T7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="U7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="V7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="W7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="X7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="Y7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="Z7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AA7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AB7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AC7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AD7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AE7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AF7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AG7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AH7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AI7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AJ7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AK7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AL7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AM7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AN7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AO7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AP7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AQ7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AR7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AS7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AT7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AU7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AV7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AW7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AX7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AY7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="AZ7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
       <c r="BA7">
-        <v>1.146671111633779</v>
+        <v>0.2241591707121238</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>-6.76086299820361</v>
-      </c>
-      <c r="F8">
-        <v>5.129778554239794</v>
-      </c>
-      <c r="G8">
-        <v>5.643342995751777</v>
-      </c>
-      <c r="H8">
-        <v>2.730731696345146</v>
-      </c>
-      <c r="I8">
-        <v>3.181454202131073</v>
-      </c>
-      <c r="J8">
-        <v>2.791140000794279</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>2.864443198590783</v>
+        <v>-1.194610791899997</v>
       </c>
       <c r="L8">
-        <v>3.022590861563312</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>3.022590861563312</v>
+        <v>0.03694906323863378</v>
       </c>
       <c r="N8">
-        <v>3.235358612404027</v>
+        <v>2.553470871380514</v>
       </c>
       <c r="O8">
-        <v>3.235358612404027</v>
+        <v>3.292216014290039</v>
       </c>
       <c r="P8">
-        <v>3.235358612404027</v>
+        <v>1.297015177357297</v>
       </c>
       <c r="Q8">
-        <v>3.235358612404027</v>
+        <v>1.308067824417058</v>
       </c>
       <c r="R8">
-        <v>3.235358612404027</v>
+        <v>1.416366389268031</v>
       </c>
       <c r="S8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="T8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="U8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="V8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="W8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="X8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="Y8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="Z8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AA8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AB8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AC8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AD8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AE8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AF8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AG8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AH8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AI8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AJ8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AK8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AL8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AM8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AN8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AO8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AP8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AQ8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AR8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AS8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AT8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AU8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AV8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AW8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AX8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AY8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="AZ8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
       <c r="BA8">
-        <v>3.235358612404027</v>
+        <v>1.466097127690258</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>5.643342995751777</v>
-      </c>
-      <c r="H9">
-        <v>1.609625625600009</v>
-      </c>
-      <c r="I9">
-        <v>4.38978860149748</v>
-      </c>
-      <c r="J9">
-        <v>1.683857142130885</v>
-      </c>
-      <c r="K9">
-        <v>0.5930547804883668</v>
-      </c>
-      <c r="L9">
-        <v>0.4451370000809973</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>0.5023688875569254</v>
+        <v>0.03694906323858937</v>
       </c>
       <c r="N9">
-        <v>0.5820920650085881</v>
+        <v>2.814914550070524</v>
       </c>
       <c r="O9">
-        <v>0.5820920650085881</v>
+        <v>7.617133650412167</v>
       </c>
       <c r="P9">
-        <v>0.2616707458898082</v>
+        <v>-0.4341460075841019</v>
       </c>
       <c r="Q9">
-        <v>0.2616707458898082</v>
+        <v>1.670328650030162</v>
       </c>
       <c r="R9">
-        <v>0.2616707458898082</v>
+        <v>1.365576377841027</v>
       </c>
       <c r="S9">
-        <v>0.2616707458898082</v>
+        <v>1.351085699872168</v>
       </c>
       <c r="T9">
-        <v>0.2616707458898082</v>
+        <v>1.257259712492265</v>
       </c>
       <c r="U9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="V9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="W9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="X9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="Y9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="Z9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AA9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AB9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AC9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AD9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AE9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AF9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AG9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AH9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AI9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AJ9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AK9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AL9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AM9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AN9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AO9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AP9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AQ9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AR9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AS9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AT9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AU9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AV9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AW9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AX9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AY9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="AZ9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
       <c r="BA9">
-        <v>0.2616707458898082</v>
+        <v>1.254835209245964</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>4.38978860149748</v>
-      </c>
-      <c r="J10">
-        <v>1.609625625599986</v>
-      </c>
-      <c r="K10">
-        <v>-1.194610791900008</v>
-      </c>
-      <c r="L10">
-        <v>-0.2532347529486723</v>
-      </c>
-      <c r="M10">
-        <v>-0.3951783438669754</v>
-      </c>
-      <c r="N10">
-        <v>0.2545814083968478</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.3132191478738111</v>
+        <v>7.617133650412211</v>
       </c>
       <c r="P10">
-        <v>0.2793044818785173</v>
+        <v>-0.6901974197039862</v>
       </c>
       <c r="Q10">
-        <v>0.224159170712146</v>
+        <v>2.037906845818593</v>
       </c>
       <c r="R10">
-        <v>0.224159170712146</v>
+        <v>2.383242923544548</v>
       </c>
       <c r="S10">
-        <v>0.224159170712146</v>
+        <v>2.562791874943349</v>
       </c>
       <c r="T10">
-        <v>0.224159170712146</v>
+        <v>2.2044495746113</v>
       </c>
       <c r="U10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="V10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="W10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="X10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="Y10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="Z10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AA10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AB10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AC10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AD10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AE10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AF10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AG10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AH10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AI10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AJ10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AK10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AL10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AM10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AN10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AO10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AP10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AQ10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AR10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AS10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AT10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AU10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AV10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AW10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AX10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AY10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="AZ10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
       <c r="BA10">
-        <v>0.224159170712146</v>
+        <v>2.247112760224157</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>-1.194610791899975</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0.03694906323863378</v>
-      </c>
-      <c r="N11">
-        <v>2.553470871380537</v>
-      </c>
-      <c r="O11">
-        <v>3.292216014290039</v>
-      </c>
-      <c r="P11">
-        <v>1.297015177357297</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>1.308067824417081</v>
+        <v>2.037906845818571</v>
       </c>
       <c r="R11">
-        <v>1.416366389268053</v>
+        <v>2.925698316753156</v>
       </c>
       <c r="S11">
-        <v>1.466097127690258</v>
+        <v>3.265947405805814</v>
       </c>
       <c r="T11">
-        <v>1.466097127690258</v>
+        <v>1.688977015142101</v>
       </c>
       <c r="U11">
-        <v>1.466097127690258</v>
+        <v>1.526411006965578</v>
       </c>
       <c r="V11">
-        <v>1.466097127690258</v>
+        <v>2.18621550610123</v>
       </c>
       <c r="W11">
-        <v>1.466097127690258</v>
+        <v>2.197155972241061</v>
       </c>
       <c r="X11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="Y11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="Z11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AA11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AB11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AC11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AD11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AE11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AF11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AG11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AH11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AI11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AJ11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AK11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AL11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AM11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AN11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AO11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AP11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AQ11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AR11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AS11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AT11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AU11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AV11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AW11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AX11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AY11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="AZ11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
       <c r="BA11">
-        <v>1.466097127690258</v>
+        <v>2.23122668424911</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>0.03694906323861158</v>
-      </c>
-      <c r="N12">
-        <v>2.81491455007048</v>
-      </c>
-      <c r="O12">
-        <v>7.617133650412211</v>
-      </c>
-      <c r="P12">
-        <v>-0.434146007584113</v>
-      </c>
-      <c r="Q12">
-        <v>1.670328650030184</v>
-      </c>
-      <c r="R12">
-        <v>1.365576377841027</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>1.351085699872145</v>
+        <v>3.265947405805814</v>
       </c>
       <c r="T12">
-        <v>1.257259712492242</v>
+        <v>1.94169138779019</v>
       </c>
       <c r="U12">
-        <v>1.254835209245964</v>
+        <v>0.6601843988560452</v>
       </c>
       <c r="V12">
-        <v>1.254835209245964</v>
+        <v>2.066615940231942</v>
       </c>
       <c r="W12">
-        <v>1.254835209245964</v>
+        <v>1.297923389414657</v>
       </c>
       <c r="X12">
-        <v>1.254835209245964</v>
+        <v>1.63465618619294</v>
       </c>
       <c r="Y12">
-        <v>1.254835209245964</v>
+        <v>2.054458927584024</v>
       </c>
       <c r="Z12">
-        <v>1.254835209245964</v>
+        <v>1.911050033324102</v>
       </c>
       <c r="AA12">
-        <v>1.254835209245964</v>
+        <v>1.91613940919908</v>
       </c>
       <c r="AB12">
-        <v>1.254835209245964</v>
+        <v>1.911050033324102</v>
       </c>
       <c r="AC12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AD12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AE12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AF12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AG12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AH12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AI12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AJ12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AK12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AL12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AM12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AN12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AO12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AP12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AQ12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AR12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AS12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AT12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AU12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AV12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AW12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AX12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AY12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="AZ12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
       <c r="BA12">
-        <v>1.254835209245964</v>
+        <v>1.74379831133713</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>7.617133650412189</v>
-      </c>
-      <c r="P13">
-        <v>-0.6901974197039973</v>
-      </c>
-      <c r="Q13">
-        <v>2.037906845818616</v>
-      </c>
-      <c r="R13">
-        <v>2.383242923544526</v>
-      </c>
-      <c r="S13">
-        <v>2.562791874943371</v>
-      </c>
-      <c r="T13">
-        <v>2.204449574611278</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>2.247112760224135</v>
+        <v>0.6601843988561118</v>
       </c>
       <c r="V13">
-        <v>2.247112760224135</v>
+        <v>1.738111631804795</v>
       </c>
       <c r="W13">
-        <v>2.247112760224135</v>
+        <v>0.5447775838346436</v>
       </c>
       <c r="X13">
-        <v>2.247112760224135</v>
+        <v>1.55185774637272</v>
       </c>
       <c r="Y13">
-        <v>2.247112760224135</v>
+        <v>3.441981941009331</v>
       </c>
       <c r="Z13">
-        <v>2.247112760224135</v>
+        <v>3.086275812215322</v>
       </c>
       <c r="AA13">
-        <v>2.247112760224135</v>
+        <v>1.064009474888961</v>
       </c>
       <c r="AB13">
-        <v>2.247112760224135</v>
+        <v>1.35261353265177</v>
       </c>
       <c r="AC13">
-        <v>2.247112760224135</v>
+        <v>1.668617211002466</v>
       </c>
       <c r="AD13">
-        <v>2.247112760224135</v>
+        <v>1.457852003181337</v>
       </c>
       <c r="AE13">
-        <v>2.247112760224135</v>
+        <v>1.358093434244112</v>
       </c>
       <c r="AF13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AG13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AH13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AI13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AJ13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AK13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AL13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AM13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AN13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AO13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AP13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AQ13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AR13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AS13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AT13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AU13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AV13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AW13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AX13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AY13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="AZ13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
       <c r="BA13">
-        <v>2.247112760224135</v>
+        <v>1.627508371112341</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>2.037906845818593</v>
-      </c>
-      <c r="R14">
-        <v>2.925698316753178</v>
-      </c>
-      <c r="S14">
-        <v>3.265947405805814</v>
-      </c>
-      <c r="T14">
-        <v>1.688977015142101</v>
-      </c>
-      <c r="U14">
-        <v>1.526411006965533</v>
-      </c>
-      <c r="V14">
-        <v>2.18621550610123</v>
-      </c>
-      <c r="W14">
-        <v>2.197155972241038</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>2.23122668424911</v>
+        <v>1.551857746372698</v>
       </c>
       <c r="Y14">
-        <v>2.23122668424911</v>
+        <v>3.551695602470817</v>
       </c>
       <c r="Z14">
-        <v>2.23122668424911</v>
+        <v>3.238605209599998</v>
       </c>
       <c r="AA14">
-        <v>2.23122668424911</v>
+        <v>0.03490120525226903</v>
       </c>
       <c r="AB14">
-        <v>2.23122668424911</v>
+        <v>0.8024032016000104</v>
       </c>
       <c r="AC14">
-        <v>2.23122668424911</v>
+        <v>1.816757311461781</v>
       </c>
       <c r="AD14">
-        <v>2.23122668424911</v>
+        <v>-1.135072001636317</v>
       </c>
       <c r="AE14">
-        <v>2.23122668424911</v>
+        <v>1.600647602405014</v>
       </c>
       <c r="AF14">
-        <v>2.23122668424911</v>
+        <v>-2.082763426755907</v>
       </c>
       <c r="AG14">
-        <v>2.23122668424911</v>
+        <v>-6.098343679991236</v>
       </c>
       <c r="AH14">
-        <v>2.23122668424911</v>
+        <v>-3.258619210312896</v>
       </c>
       <c r="AI14">
-        <v>2.23122668424911</v>
+        <v>-3.312413209132492</v>
       </c>
       <c r="AJ14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AK14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AL14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AM14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AN14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AO14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AP14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AQ14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AR14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AS14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AT14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AU14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AV14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AW14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AX14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AY14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="AZ14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
       <c r="BA14">
-        <v>2.23122668424911</v>
+        <v>-3.216704811113169</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>3.265947405805836</v>
-      </c>
-      <c r="T15">
-        <v>1.94169138779019</v>
-      </c>
-      <c r="U15">
-        <v>0.6601843988560674</v>
-      </c>
-      <c r="V15">
-        <v>2.066615940231964</v>
-      </c>
-      <c r="W15">
-        <v>1.297923389414657</v>
-      </c>
-      <c r="X15">
-        <v>1.63465618619294</v>
-      </c>
-      <c r="Y15">
-        <v>2.054458927584024</v>
-      </c>
-      <c r="Z15">
-        <v>1.911050033324102</v>
-      </c>
-      <c r="AA15">
-        <v>1.916139409199058</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>1.911050033324102</v>
+        <v>0.8024032016000104</v>
       </c>
       <c r="AC15">
-        <v>1.74379831133713</v>
+        <v>1.965742108313884</v>
       </c>
       <c r="AD15">
-        <v>1.74379831133713</v>
+        <v>-1.60753847598506</v>
       </c>
       <c r="AE15">
-        <v>1.74379831133713</v>
+        <v>2.904532120297265</v>
       </c>
       <c r="AF15">
-        <v>1.74379831133713</v>
+        <v>-5.866344937500012</v>
       </c>
       <c r="AG15">
-        <v>1.74379831133713</v>
+        <v>-24.68459749742852</v>
       </c>
       <c r="AH15">
-        <v>1.74379831133713</v>
+        <v>11.44905912635792</v>
       </c>
       <c r="AI15">
-        <v>1.74379831133713</v>
+        <v>-1.289259938979481</v>
       </c>
       <c r="AJ15">
-        <v>1.74379831133713</v>
+        <v>-2.616267413525608</v>
       </c>
       <c r="AK15">
-        <v>1.74379831133713</v>
+        <v>0.1754491998870789</v>
       </c>
       <c r="AL15">
-        <v>1.74379831133713</v>
+        <v>0.4255262881966759</v>
       </c>
       <c r="AM15">
-        <v>1.74379831133713</v>
+        <v>0.3378790965023581</v>
       </c>
       <c r="AN15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AO15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AP15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AQ15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AR15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AS15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AT15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AU15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AV15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AW15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AX15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AY15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="AZ15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
       <c r="BA15">
-        <v>1.74379831133713</v>
+        <v>0.3702368369074227</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>0.6601843988560674</v>
-      </c>
-      <c r="V16">
-        <v>1.738111631804795</v>
-      </c>
-      <c r="W16">
-        <v>0.5447775838346658</v>
-      </c>
-      <c r="X16">
-        <v>1.551857746372698</v>
-      </c>
-      <c r="Y16">
-        <v>3.441981941009353</v>
-      </c>
-      <c r="Z16">
-        <v>3.0862758122153</v>
-      </c>
-      <c r="AA16">
-        <v>1.064009474888983</v>
-      </c>
-      <c r="AB16">
-        <v>1.35261353265177</v>
-      </c>
-      <c r="AC16">
-        <v>1.668617211002466</v>
-      </c>
-      <c r="AD16">
-        <v>1.457852003181337</v>
-      </c>
-      <c r="AE16">
-        <v>1.358093434244134</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>1.627508371112341</v>
+        <v>-5.866344937500001</v>
       </c>
       <c r="AG16">
-        <v>1.627508371112341</v>
+        <v>-25.93540127468257</v>
       </c>
       <c r="AH16">
-        <v>1.627508371112341</v>
+        <v>20.00834592263006</v>
       </c>
       <c r="AI16">
-        <v>1.627508371112341</v>
+        <v>-1.064625611893855</v>
       </c>
       <c r="AJ16">
-        <v>1.627508371112341</v>
+        <v>-4.982381489483368</v>
       </c>
       <c r="AK16">
-        <v>1.627508371112341</v>
+        <v>8.818149619171688</v>
       </c>
       <c r="AL16">
-        <v>1.627508371112341</v>
+        <v>7.992501921215989</v>
       </c>
       <c r="AM16">
-        <v>1.627508371112341</v>
+        <v>1.017074315159539</v>
       </c>
       <c r="AN16">
-        <v>1.627508371112341</v>
+        <v>4.740462114200339</v>
       </c>
       <c r="AO16">
-        <v>1.627508371112341</v>
+        <v>3.634271709196679</v>
       </c>
       <c r="AP16">
-        <v>1.627508371112341</v>
+        <v>3.293290997728171</v>
       </c>
       <c r="AQ16">
-        <v>1.627508371112341</v>
+        <v>3.16464878088103</v>
       </c>
       <c r="AR16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AS16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AT16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AU16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AV16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AW16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AX16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AY16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="AZ16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
       <c r="BA16">
-        <v>1.627508371112341</v>
+        <v>3.384864575578206</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>1.551857746372698</v>
-      </c>
-      <c r="Y17">
-        <v>3.551695602470795</v>
-      </c>
-      <c r="Z17">
-        <v>3.238605209599998</v>
-      </c>
-      <c r="AA17">
-        <v>0.03490120525229123</v>
-      </c>
-      <c r="AB17">
-        <v>0.8024032016000104</v>
-      </c>
-      <c r="AC17">
-        <v>1.816757311461803</v>
-      </c>
-      <c r="AD17">
-        <v>-1.135072001636328</v>
-      </c>
-      <c r="AE17">
-        <v>1.60064760240497</v>
-      </c>
-      <c r="AF17">
-        <v>-2.082763426755907</v>
-      </c>
-      <c r="AG17">
-        <v>-6.098343679991225</v>
-      </c>
-      <c r="AH17">
-        <v>-3.258619210312885</v>
-      </c>
-      <c r="AI17">
-        <v>-3.31241320913247</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-3.216704811113158</v>
+        <v>-4.982381489483368</v>
       </c>
       <c r="AK17">
-        <v>-3.216704811113158</v>
+        <v>9.7370747134363</v>
       </c>
       <c r="AL17">
-        <v>-3.216704811113158</v>
+        <v>8.375384253760142</v>
       </c>
       <c r="AM17">
-        <v>-3.216704811113158</v>
+        <v>-2.180963197656882</v>
       </c>
       <c r="AN17">
-        <v>-3.216704811113158</v>
+        <v>7.292134478258427</v>
       </c>
       <c r="AO17">
-        <v>-3.216704811113158</v>
+        <v>3.085654629190437</v>
       </c>
       <c r="AP17">
-        <v>-3.216704811113158</v>
+        <v>2.385220017127665</v>
       </c>
       <c r="AQ17">
-        <v>-3.216704811113158</v>
+        <v>-0.4898151384455596</v>
       </c>
       <c r="AR17">
-        <v>-3.216704811113158</v>
+        <v>-1.298607950737285</v>
       </c>
       <c r="AS17">
-        <v>-3.216704811113158</v>
+        <v>-0.1325798828871849</v>
       </c>
       <c r="AT17">
-        <v>-3.216704811113158</v>
+        <v>-0.2814561130375703</v>
       </c>
       <c r="AU17">
-        <v>-3.216704811113158</v>
+        <v>-0.280872493597617</v>
       </c>
       <c r="AV17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
       <c r="AW17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
       <c r="AX17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
       <c r="AY17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
       <c r="AZ17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
       <c r="BA17">
-        <v>-3.216704811113158</v>
+        <v>-0.07706903390789499</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>0.8024032016000104</v>
-      </c>
-      <c r="AC18">
-        <v>1.965742108313862</v>
-      </c>
-      <c r="AD18">
-        <v>-1.607538475985104</v>
-      </c>
-      <c r="AE18">
-        <v>2.904532120297287</v>
-      </c>
-      <c r="AF18">
-        <v>-5.866344937500023</v>
-      </c>
-      <c r="AG18">
-        <v>-24.68459749742853</v>
-      </c>
-      <c r="AH18">
-        <v>11.44905912635794</v>
-      </c>
-      <c r="AI18">
-        <v>-1.289259938979503</v>
-      </c>
-      <c r="AJ18">
-        <v>-2.61626741352563</v>
-      </c>
-      <c r="AK18">
-        <v>0.1754491998870789</v>
-      </c>
-      <c r="AL18">
-        <v>0.4255262881966981</v>
-      </c>
-      <c r="AM18">
-        <v>0.3378790965023581</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>0.3702368369074227</v>
+        <v>7.292134478258427</v>
       </c>
       <c r="AO18">
-        <v>0.3702368369074227</v>
+        <v>2.911018916833052</v>
       </c>
       <c r="AP18">
-        <v>0.3702368369074227</v>
+        <v>2.021759928986566</v>
       </c>
       <c r="AQ18">
-        <v>0.3702368369074227</v>
+        <v>-2.335581849600521</v>
       </c>
       <c r="AR18">
-        <v>0.3702368369074227</v>
+        <v>-3.9629219377881</v>
       </c>
       <c r="AS18">
-        <v>0.3702368369074227</v>
+        <v>1.927814683578033</v>
       </c>
       <c r="AT18">
-        <v>0.3702368369074227</v>
+        <v>-1.104428907745314</v>
       </c>
       <c r="AU18">
-        <v>0.3702368369074227</v>
+        <v>-0.9364538479926687</v>
       </c>
       <c r="AV18">
-        <v>0.3702368369074227</v>
+        <v>-0.994151974263302</v>
       </c>
       <c r="AW18">
-        <v>0.3702368369074227</v>
+        <v>-0.9516440563535733</v>
       </c>
       <c r="AX18">
-        <v>0.3702368369074227</v>
+        <v>-0.6470065423293758</v>
       </c>
       <c r="AY18">
-        <v>0.3702368369074227</v>
+        <v>-0.6056569328546479</v>
       </c>
       <c r="AZ18">
-        <v>0.3702368369074227</v>
+        <v>-0.5776350899065585</v>
       </c>
       <c r="BA18">
-        <v>0.3702368369074227</v>
+        <v>-0.5776350899065585</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>-5.866344937500012</v>
-      </c>
-      <c r="AG19">
-        <v>-25.93540127468257</v>
-      </c>
-      <c r="AH19">
-        <v>20.00834592263008</v>
-      </c>
-      <c r="AI19">
-        <v>-1.064625611893888</v>
-      </c>
-      <c r="AJ19">
-        <v>-4.982381489483345</v>
-      </c>
-      <c r="AK19">
-        <v>8.818149619171688</v>
-      </c>
-      <c r="AL19">
-        <v>7.992501921215989</v>
-      </c>
-      <c r="AM19">
-        <v>1.017074315159494</v>
-      </c>
-      <c r="AN19">
-        <v>4.740462114200339</v>
-      </c>
-      <c r="AO19">
-        <v>3.634271709196701</v>
-      </c>
-      <c r="AP19">
-        <v>3.293290997728171</v>
-      </c>
-      <c r="AQ19">
-        <v>3.164648780881052</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>3.384864575578228</v>
+        <v>-3.962921937788122</v>
       </c>
       <c r="AS19">
-        <v>3.384864575578228</v>
+        <v>2.336107535492116</v>
       </c>
       <c r="AT19">
-        <v>3.384864575578228</v>
+        <v>-1.464839046773403</v>
       </c>
       <c r="AU19">
-        <v>3.384864575578228</v>
+        <v>-1.149192815438882</v>
       </c>
       <c r="AV19">
-        <v>3.384864575578228</v>
+        <v>0</v>
       </c>
       <c r="AW19">
-        <v>3.384864575578228</v>
+        <v>0.04770910652025506</v>
       </c>
       <c r="AX19">
-        <v>3.384864575578228</v>
+        <v>3.449881734069282</v>
       </c>
       <c r="AY19">
-        <v>3.384864575578228</v>
+        <v>3.540789332106176</v>
       </c>
       <c r="AZ19">
-        <v>3.384864575578228</v>
+        <v>1.069485063776932</v>
       </c>
       <c r="BA19">
-        <v>3.384864575578228</v>
+        <v>2.107899101287591</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>-4.982381489483378</v>
-      </c>
-      <c r="AK20">
-        <v>9.7370747134363</v>
-      </c>
-      <c r="AL20">
-        <v>8.375384253760121</v>
-      </c>
-      <c r="AM20">
-        <v>-2.18096319765686</v>
-      </c>
-      <c r="AN20">
-        <v>7.292134478258427</v>
-      </c>
-      <c r="AO20">
-        <v>3.085654629190415</v>
-      </c>
-      <c r="AP20">
-        <v>2.385220017127665</v>
-      </c>
-      <c r="AQ20">
-        <v>-0.4898151384455929</v>
-      </c>
-      <c r="AR20">
-        <v>-1.298607950737329</v>
-      </c>
-      <c r="AS20">
-        <v>-0.1325798828872071</v>
-      </c>
-      <c r="AT20">
-        <v>-0.2814561130375925</v>
-      </c>
-      <c r="AU20">
-        <v>-0.2808724935976281</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-0.0770690339079394</v>
+        <v>0</v>
       </c>
       <c r="AW20">
-        <v>-0.0770690339079394</v>
+        <v>0.03817076216479087</v>
       </c>
       <c r="AX20">
-        <v>-0.0770690339079394</v>
+        <v>4.179425305553575</v>
       </c>
       <c r="AY20">
-        <v>-0.0770690339079394</v>
+        <v>4.08949875228497</v>
       </c>
       <c r="AZ20">
-        <v>-0.0770690339079394</v>
+        <v>-2.110726282892139</v>
       </c>
       <c r="BA20">
-        <v>-0.0770690339079394</v>
+        <v>1.554246181732633</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>7.29213447825845</v>
-      </c>
-      <c r="AO21">
-        <v>2.911018916833052</v>
-      </c>
-      <c r="AP21">
-        <v>2.021759928986611</v>
-      </c>
-      <c r="AQ21">
-        <v>-2.33558184960051</v>
-      </c>
-      <c r="AR21">
-        <v>-3.9629219377881</v>
-      </c>
-      <c r="AS21">
-        <v>1.927814683578033</v>
-      </c>
-      <c r="AT21">
-        <v>-1.104428907745325</v>
-      </c>
-      <c r="AU21">
-        <v>-0.9364538479926687</v>
-      </c>
-      <c r="AV21">
-        <v>-0.9941519742633131</v>
-      </c>
-      <c r="AW21">
-        <v>-0.9516440563535733</v>
-      </c>
-      <c r="AX21">
-        <v>-0.6470065423293869</v>
-      </c>
-      <c r="AY21">
-        <v>-0.605656932854659</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-0.5776350899065585</v>
+        <v>-2.110726282892117</v>
       </c>
       <c r="BA21">
-        <v>-0.5776350899065585</v>
+        <v>1.690977685088169</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>-3.9629219377881</v>
-      </c>
-      <c r="AS22">
-        <v>2.336107535492116</v>
-      </c>
-      <c r="AT22">
-        <v>-1.464839046773403</v>
-      </c>
-      <c r="AU22">
-        <v>-1.14919281543886</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AW22">
-        <v>0.04770910652027727</v>
-      </c>
-      <c r="AX22">
-        <v>3.44988173406926</v>
-      </c>
-      <c r="AY22">
-        <v>3.540789332106198</v>
-      </c>
-      <c r="AZ22">
-        <v>1.069485063776954</v>
-      </c>
-      <c r="BA22">
-        <v>2.107899101287614</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
-        <v>0.03817076216479087</v>
-      </c>
-      <c r="AX23">
-        <v>4.179425305553552</v>
-      </c>
-      <c r="AY23">
-        <v>4.08949875228497</v>
-      </c>
-      <c r="AZ23">
-        <v>-2.110726282892128</v>
-      </c>
-      <c r="BA23">
-        <v>1.554246181732633</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>-2.110726282892128</v>
-      </c>
-      <c r="BA24">
-        <v>1.690977685088169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_DOMUSE_AVERAGE_1_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>-1.639753924881249</v>
       </c>
+      <c r="BB3">
+        <v>-1.639753924881249</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>1.146671111633779</v>
       </c>
+      <c r="BB4">
+        <v>1.146671111633779</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>3.235358612404049</v>
       </c>
+      <c r="BB5">
+        <v>3.235358612404049</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>0.261670745889786</v>
       </c>
+      <c r="BB6">
+        <v>0.261670745889786</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>0.2241591707121238</v>
       </c>
+      <c r="BB7">
+        <v>0.2241591707121238</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>1.466097127690258</v>
       </c>
+      <c r="BB8">
+        <v>1.466097127690258</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>1.254835209245964</v>
       </c>
+      <c r="BB9">
+        <v>1.254835209245964</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>2.247112760224157</v>
       </c>
+      <c r="BB10">
+        <v>2.247112760224157</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>2.23122668424911</v>
       </c>
+      <c r="BB11">
+        <v>2.23122668424911</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>1.74379831133713</v>
       </c>
+      <c r="BB12">
+        <v>1.74379831133713</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>1.627508371112341</v>
       </c>
+      <c r="BB13">
+        <v>1.627508371112341</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>-3.216704811113169</v>
       </c>
+      <c r="BB14">
+        <v>-3.216704811113169</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>0.3702368369074227</v>
       </c>
+      <c r="BB15">
+        <v>0.3702368369074227</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>3.384864575578206</v>
       </c>
+      <c r="BB16">
+        <v>3.384864575578206</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>-0.07706903390789499</v>
       </c>
+      <c r="BB17">
+        <v>-0.07706903390789499</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>-0.5776350899065585</v>
       </c>
+      <c r="BB18">
+        <v>-0.5776350899065585</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>2.107899101287591</v>
       </c>
+      <c r="BB19">
+        <v>2.043309689777173</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>1.554246181732633</v>
       </c>
+      <c r="BB20">
+        <v>1.199077969291551</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>1.690977685088169</v>
       </c>
+      <c r="BB21">
+        <v>1.308808515504123</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
